--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -38,16 +38,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>我的测试项目</t>
-  </si>
-  <si>
-    <t>17M</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2018-12-12 10:12:10</t>
+    <t>智商beta</t>
+  </si>
+  <si>
+    <t>22M</t>
+  </si>
+  <si>
+    <t>'3.0.0</t>
+  </si>
+  <si>
+    <t>2016-10-28 17:14 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>120秒</t>
+    <t>89秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -83,13 +83,23 @@
     <t>手机系统</t>
   </si>
   <si>
-    <t>TCL</t>
-  </si>
-  <si>
-    <t>720*1080</t>
-  </si>
-  <si>
-    <t>4.4.2</t>
+    <t>FPS均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H60-L02
+ Huawei
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080x1920
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2
+</t>
+  </si>
+  <si>
+    <t>20.00</t>
   </si>
   <si>
     <t>运行内存</t>
@@ -101,82 +111,154 @@
     <t>内存占用峰值</t>
   </si>
   <si>
-    <t>2G</t>
+    <t>FPS峰值</t>
+  </si>
+  <si>
+    <t>3014M</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>157M</t>
+  </si>
+  <si>
+    <t>133.71</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>CPU占用均值</t>
+  </si>
+  <si>
+    <t>CPU占用峰值</t>
+  </si>
+  <si>
+    <t>8核</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>测试详情</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>用例介绍</t>
+  </si>
+  <si>
+    <t>用例名字</t>
+  </si>
+  <si>
+    <t>内存峰值(M)</t>
+  </si>
+  <si>
+    <t>内存均值(M)</t>
+  </si>
+  <si>
+    <t>CPU峰值</t>
+  </si>
+  <si>
+    <t>CPU均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试结果 </t>
+  </si>
+  <si>
+    <t>失败原因</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>引导图</t>
+  </si>
+  <si>
+    <t>test_home_fist_open</t>
+  </si>
+  <si>
+    <t>135M</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>123.18</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>test_home_login</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>55%</t>
   </si>
   <si>
     <t>35%</t>
   </si>
   <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>CPU占用均值</t>
-  </si>
-  <si>
-    <t>CPU占用峰值</t>
-  </si>
-  <si>
-    <t>2核</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>测试详情</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>用例介绍</t>
-  </si>
-  <si>
-    <t>用例名字</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>失败原因</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>我的</t>
-  </si>
-  <si>
-    <t>登陆个人中心</t>
-  </si>
-  <si>
-    <t>test_login</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>密码错了</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>退出登陆</t>
-  </si>
-  <si>
-    <t>test_loginOut</t>
-  </si>
-  <si>
-    <t>未知错误</t>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>个人反馈</t>
+  </si>
+  <si>
+    <t>test_home_feed</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>应用中心</t>
+  </si>
+  <si>
+    <t>工作汇报</t>
+  </si>
+  <si>
+    <t>test_work_report</t>
+  </si>
+  <si>
+    <t>103M</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>34.61</t>
+  </si>
+  <si>
+    <t>14.00</t>
   </si>
 </sst>
 </file>
@@ -565,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -631,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -649,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -685,19 +767,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
@@ -705,19 +787,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
@@ -725,22 +807,36 @@
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1"/>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
@@ -755,7 +851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,83 +867,209 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
+      <c r="A3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
+      <c r="A5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1"/>
-    <row r="6" spans="1:6" ht="30" customHeight="1"/>
-    <row r="7" spans="1:6" ht="30" customHeight="1"/>
-    <row r="8" spans="1:6" ht="30" customHeight="1"/>
+      <c r="H5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
+      <c r="A6" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
